--- a/GD_ThreeMatch/Assets/8.GD/James/Resources/Character.xlsx
+++ b/GD_ThreeMatch/Assets/8.GD/James/Resources/Character.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\NaraeTeam\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,77 +19,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>Plask</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>레벨</t>
+  </si>
+  <si>
+    <t>플레이어레벨</t>
+  </si>
+  <si>
+    <t>Luby</t>
+  </si>
+  <si>
+    <t>루비</t>
+  </si>
+  <si>
+    <t>Parchment</t>
+  </si>
+  <si>
+    <t>양피지</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>돈</t>
+  </si>
+  <si>
+    <t>눈이부시게빛나고있다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RedPlask</t>
+    <t>양피지를모으자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실리드의깃털</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도박사의동전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아몬드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parchment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양피지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>James</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제임스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨</t>
+    <t>게임의머니</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,154 +390,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
